--- a/biology/Botanique/Campanula_komarovii/Campanula_komarovii.xlsx
+++ b/biology/Botanique/Campanula_komarovii/Campanula_komarovii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula komarovii, ou campanule de Komarov, est une espèce de plante vivace rare de la famille des Campanulaceae. Son habitat est réduit: elle se rencontre en Russie dans la région du Caucase bordant la mer Noire (kraï de Krasnodar). Elle figure au livre rouge de Russie des espèces menacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été baptisée en l'honneur de Vladimir Leontievitch Komarov (1869-1945), par le botaniste soviétique Maleïev, en 1930.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette campanule mesure de 30 à 50 cm de hauteur avec des racines ligneuses et plusieurs tiges ascendantes qui sont recouvertes à la base de poils blancs duveteux.
 Ses feuilles mesurent jusqu'à 4 cm de longueur et jusqu'à 1 cm de largeur, longues et spatulées avec un pétiole étroit recouvert au-dessus de poils sessiles soyeux et blancs. Les fleurs mesurent de 3 à 4 cm avec une corolle du violet pâle au bleu pâle. Elle est quatre à cinq fois plus longue que le calice.
